--- a/PCB_ELAB/Project Outputs for PCB_Project1/partnumbers.xlsx
+++ b/PCB_ELAB/Project Outputs for PCB_Project1/partnumbers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Jorge\UPM\master\ELAB\Trabajo ELAB\PCB_ELAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Jorge\UPM\master\ELAB\Trabajo ELAB\PCB_ELAB\Project Outputs for PCB_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0427DD8E-1419-4B9D-8703-D679B825D962}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>NAME</t>
   </si>
@@ -79,18 +75,12 @@
     <t>R3,R4</t>
   </si>
   <si>
-    <t>ERJ-PA3J102V</t>
-  </si>
-  <si>
     <t>RES 0603 SMD 1K</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>IN-S85ATR</t>
-  </si>
-  <si>
     <t>C13</t>
   </si>
   <si>
@@ -106,21 +96,9 @@
     <t>C16</t>
   </si>
   <si>
-    <t>CAP SMD 0603 10UF</t>
-  </si>
-  <si>
     <t>CAP SMD 0603 0.1UF</t>
   </si>
   <si>
-    <t>C0603T104J5RACTU</t>
-  </si>
-  <si>
-    <t>GRM188R6YA106MA73D</t>
-  </si>
-  <si>
-    <t>C1608JB1V105K080AB</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
@@ -145,9 +123,6 @@
     <t>P160KNPD-0QC15A10K</t>
   </si>
   <si>
-    <t>mouser</t>
-  </si>
-  <si>
     <t>Potenciometros Logarítimicos 10k</t>
   </si>
   <si>
@@ -157,24 +132,9 @@
     <t>C5, C11</t>
   </si>
   <si>
-    <t>C0805C473K3RACTU</t>
-  </si>
-  <si>
     <t>C1, C7</t>
   </si>
   <si>
-    <t>VJ0805Y104KXQCW1BC</t>
-  </si>
-  <si>
-    <t>C0805X106J8RACAUTO</t>
-  </si>
-  <si>
-    <t>TDK CGA5L1X8L1C106K160AC</t>
-  </si>
-  <si>
-    <t>220uF tantalum capacitor 2312 package</t>
-  </si>
-  <si>
     <t>47nF ceramic capacitors 0805 package</t>
   </si>
   <si>
@@ -211,9 +171,6 @@
     <t>10uF ceramic capacitors 1206 package</t>
   </si>
   <si>
-    <t>C1206C224KARACAUTO</t>
-  </si>
-  <si>
     <t>220nF cercamic capacirtors 1206 package</t>
   </si>
   <si>
@@ -223,28 +180,75 @@
     <t>R1, R2</t>
   </si>
   <si>
-    <t>SR732ARTTD10R0F</t>
-  </si>
-  <si>
     <t>10 ohmios resistors 0805 package</t>
   </si>
   <si>
-    <t>UKA1A221MED</t>
-  </si>
-  <si>
-    <t>LM386M-1</t>
-  </si>
-  <si>
     <t>Operational Amplifier</t>
   </si>
   <si>
     <t>LM386x2</t>
+  </si>
+  <si>
+    <t>RC0603JR-071KL</t>
+  </si>
+  <si>
+    <t>GRT188C8YA105KE13D</t>
+  </si>
+  <si>
+    <t>CC0603KRX5R9BB104</t>
+  </si>
+  <si>
+    <t>SML-H12P8TT86C</t>
+  </si>
+  <si>
+    <t>C2012JB1V106K125AC</t>
+  </si>
+  <si>
+    <t>RGA221M1CBK-0811G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CC0805JRX7R7BB473</t>
+  </si>
+  <si>
+    <t>C0805C104K4RAC</t>
+  </si>
+  <si>
+    <t>CAP SMD 0805 10UF</t>
+  </si>
+  <si>
+    <t>EMK316BJ106KL-T</t>
+  </si>
+  <si>
+    <t>C2012JB1C106K085AC</t>
+  </si>
+  <si>
+    <t>VJ1206Y224KXJTW1BC</t>
+  </si>
+  <si>
+    <t>RL1220S-100-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LM386M-1/NOPB</t>
+  </si>
+  <si>
+    <t>220uF electrolitic 16V</t>
+  </si>
+  <si>
+    <t>ERJ-PA3J622V</t>
+  </si>
+  <si>
+    <t>CC0805JRX7R7BB473</t>
+  </si>
+  <si>
+    <t>LM386M-1/NOPB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,7 +272,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,18 +314,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -630,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,9 +656,10 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,262 +672,408 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F13" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D15" s="6">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F18" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F19" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F23" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>68</v>
+      <c r="F25" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" display="https://www.mouser.es/ProductDetail/Vishay/CRCW08050000Z0EAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrndZ6xkisOKp%2fuAQc4g12iA%3d%3d"/>
-    <hyperlink ref="C18" r:id="rId2" display="https://www.mouser.es/ProductDetail/Vishay-Vitramon/VJ0805Y104KXQCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQLWhsuYvNua1RI21dNCCgdg%3d"/>
-    <hyperlink ref="C19" r:id="rId3" display="https://www.mouser.es/ProductDetail/KEMET/C0805X106J8RACAUTO?qs=sGAEpiMZZMs0AnBnWHyRQN7%2fAA2D2lPPwHdi1%252bDWxGSfF7L63Vx80w%3d%3d"/>
-    <hyperlink ref="C22" r:id="rId4" display="https://www.mouser.es/ProductDetail/KOA-Speer/SR732ARTTD10R0F?qs=sGAEpiMZZMtlubZbdhIBIKX7RhrzB5EAded0cqnN3%252bA%3d"/>
+    <hyperlink ref="C14" r:id="rId1" display="https://www.mouser.es/ProductDetail/Vishay/CRCW08050000Z0EAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrndZ6xkisOKp%2fuAQc4g12iA%3d%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C22" r:id="rId2" display="https://www.mouser.es/ProductDetail/KOA-Speer/SR732ARTTD10R0F?qs=sGAEpiMZZMtlubZbdhIBIKX7RhrzB5EAded0cqnN3%252bA%3d" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/PCB_ELAB/Project Outputs for PCB_Project1/partnumbers.xlsx
+++ b/PCB_ELAB/Project Outputs for PCB_Project1/partnumbers.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Jorge\UPM\master\ELAB\Trabajo ELAB\PCB_ELAB\Project Outputs for PCB_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0427DD8E-1419-4B9D-8703-D679B825D962}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB66617-9CED-47F0-9BE4-6001F50A45B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>NAME</t>
   </si>
@@ -205,10 +211,6 @@
   </si>
   <si>
     <t>RGA221M1CBK-0811G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CC0805JRX7R7BB473</t>
   </si>
   <si>
     <t>C0805C104K4RAC</t>
@@ -243,13 +245,40 @@
   </si>
   <si>
     <t>LM386M-1/NOPB</t>
+  </si>
+  <si>
+    <t>16YXJ220MT16.3X11</t>
+  </si>
+  <si>
+    <t>‎P160KN-0QC20A10K‎</t>
+  </si>
+  <si>
+    <t>‎885012207043‎</t>
+  </si>
+  <si>
+    <t>‎08053C104KAT2A‎</t>
+  </si>
+  <si>
+    <t>‎CL21A106KOCLRNC‎</t>
+  </si>
+  <si>
+    <t>‎CL31B106MOHNNNE‎</t>
+  </si>
+  <si>
+    <t>‎C1206C224K4RAC7800‎</t>
+  </si>
+  <si>
+    <t>‎RNCP0805FTD10R0‎</t>
+  </si>
+  <si>
+    <t>CL10A105KL8NNNC‎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +297,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -314,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -324,12 +359,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -645,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F25"/>
+  <dimension ref="A3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +720,7 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -704,7 +738,7 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -722,7 +756,7 @@
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -740,7 +774,7 @@
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -758,7 +792,7 @@
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -776,7 +810,7 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -785,8 +819,8 @@
         <v>18</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
+      <c r="C10" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
@@ -794,7 +828,7 @@
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -810,9 +844,9 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -830,7 +864,7 @@
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -848,8 +882,8 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>69</v>
+      <c r="F13" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -866,7 +900,7 @@
       <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -875,8 +909,8 @@
         <v>30</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
+      <c r="C15" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="6">
         <v>14</v>
@@ -884,7 +918,7 @@
       <c r="E15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -893,26 +927,26 @@
         <v>33</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="8" t="s">
-        <v>60</v>
+      <c r="C17" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
@@ -920,17 +954,18 @@
       <c r="E17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
-        <v>61</v>
+      <c r="C18" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -938,17 +973,17 @@
       <c r="E18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
+      <c r="C19" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D19" s="2">
         <v>15</v>
@@ -956,17 +991,17 @@
       <c r="E19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
+      <c r="C20" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
@@ -974,17 +1009,17 @@
       <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
+      <c r="C21" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -992,17 +1027,17 @@
       <c r="E21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
@@ -1010,11 +1045,11 @@
       <c r="E22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1028,11 +1063,11 @@
       <c r="E23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
@@ -1046,17 +1081,17 @@
       <c r="E24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="8" t="s">
-        <v>67</v>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -1064,16 +1099,15 @@
       <c r="E25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>71</v>
+      <c r="F25" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" display="https://www.mouser.es/ProductDetail/Vishay/CRCW08050000Z0EAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrndZ6xkisOKp%2fuAQc4g12iA%3d%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C22" r:id="rId2" display="https://www.mouser.es/ProductDetail/KOA-Speer/SR732ARTTD10R0F?qs=sGAEpiMZZMtlubZbdhIBIKX7RhrzB5EAded0cqnN3%252bA%3d" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>